--- a/test_data/data_benchmark_cn_mobile.xlsx
+++ b/test_data/data_benchmark_cn_mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260" firstSheet="11" activeTab="12"/>
+    <workbookView windowHeight="24060" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TO_BASS_CUST" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="1349">
   <si>
     <t>中文字段名</t>
   </si>
@@ -1749,9 +1749,6 @@
   </si>
   <si>
     <t>month</t>
-  </si>
-  <si>
-    <t>A1-2:自然人身份标识</t>
   </si>
   <si>
     <t>使用人证件类型编码</t>
@@ -4098,24 +4095,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4135,16 +4116,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4155,6 +4160,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4181,23 +4202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4210,35 +4216,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4251,7 +4248,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4263,7 +4296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4275,25 +4314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4305,61 +4338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4377,19 +4368,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4401,37 +4410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4442,36 +4439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4492,11 +4459,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4519,26 +4534,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4547,148 +4544,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5974,10 +5971,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4" t="s">
         <v>736</v>
-      </c>
-      <c r="B4" t="s">
-        <v>737</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -5991,10 +5988,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5" t="s">
         <v>738</v>
-      </c>
-      <c r="B5" t="s">
-        <v>739</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -6008,10 +6005,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -6025,10 +6022,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B7" t="s">
         <v>741</v>
-      </c>
-      <c r="B7" t="s">
-        <v>742</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -6042,10 +6039,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B8" t="s">
         <v>743</v>
-      </c>
-      <c r="B8" t="s">
-        <v>744</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -6059,10 +6056,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>744</v>
+      </c>
+      <c r="B9" t="s">
         <v>745</v>
-      </c>
-      <c r="B9" t="s">
-        <v>746</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -6076,10 +6073,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -6093,10 +6090,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B11" t="s">
         <v>748</v>
-      </c>
-      <c r="B11" t="s">
-        <v>749</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -6110,10 +6107,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>749</v>
+      </c>
+      <c r="B12" t="s">
         <v>750</v>
-      </c>
-      <c r="B12" t="s">
-        <v>751</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -6127,10 +6124,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>751</v>
+      </c>
+      <c r="B13" t="s">
         <v>752</v>
-      </c>
-      <c r="B13" t="s">
-        <v>753</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -6144,10 +6141,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6161,10 +6158,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>754</v>
+      </c>
+      <c r="B15" t="s">
         <v>755</v>
-      </c>
-      <c r="B15" t="s">
-        <v>756</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6178,10 +6175,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" t="s">
         <v>757</v>
-      </c>
-      <c r="B16" t="s">
-        <v>758</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6195,10 +6192,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B17" t="s">
         <v>759</v>
-      </c>
-      <c r="B17" t="s">
-        <v>760</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6212,10 +6209,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>760</v>
+      </c>
+      <c r="B18" t="s">
         <v>761</v>
-      </c>
-      <c r="B18" t="s">
-        <v>762</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -6229,10 +6226,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>762</v>
+      </c>
+      <c r="B19" t="s">
         <v>763</v>
-      </c>
-      <c r="B19" t="s">
-        <v>764</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -6246,10 +6243,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>764</v>
+      </c>
+      <c r="B20" t="s">
         <v>765</v>
-      </c>
-      <c r="B20" t="s">
-        <v>766</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -6263,10 +6260,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>766</v>
+      </c>
+      <c r="B21" t="s">
         <v>767</v>
-      </c>
-      <c r="B21" t="s">
-        <v>768</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -6280,10 +6277,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>768</v>
+      </c>
+      <c r="B22" t="s">
         <v>769</v>
-      </c>
-      <c r="B22" t="s">
-        <v>770</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -6297,10 +6294,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>770</v>
+      </c>
+      <c r="B23" t="s">
         <v>771</v>
-      </c>
-      <c r="B23" t="s">
-        <v>772</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -6314,10 +6311,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>772</v>
+      </c>
+      <c r="B24" t="s">
         <v>773</v>
-      </c>
-      <c r="B24" t="s">
-        <v>774</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -6331,10 +6328,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>774</v>
+      </c>
+      <c r="B25" t="s">
         <v>775</v>
-      </c>
-      <c r="B25" t="s">
-        <v>776</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -6348,10 +6345,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>776</v>
+      </c>
+      <c r="B26" t="s">
         <v>777</v>
-      </c>
-      <c r="B26" t="s">
-        <v>778</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -6382,10 +6379,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>778</v>
+      </c>
+      <c r="B28" t="s">
         <v>779</v>
-      </c>
-      <c r="B28" t="s">
-        <v>780</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -6399,10 +6396,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>780</v>
+      </c>
+      <c r="B29" t="s">
         <v>781</v>
-      </c>
-      <c r="B29" t="s">
-        <v>782</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -6416,10 +6413,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>782</v>
+      </c>
+      <c r="B30" t="s">
         <v>783</v>
-      </c>
-      <c r="B30" t="s">
-        <v>784</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -6433,10 +6430,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>784</v>
+      </c>
+      <c r="B31" t="s">
         <v>785</v>
-      </c>
-      <c r="B31" t="s">
-        <v>786</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -6450,10 +6447,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>786</v>
+      </c>
+      <c r="B32" t="s">
         <v>787</v>
-      </c>
-      <c r="B32" t="s">
-        <v>788</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -6467,10 +6464,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>788</v>
+      </c>
+      <c r="B33" t="s">
         <v>789</v>
-      </c>
-      <c r="B33" t="s">
-        <v>790</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -6484,10 +6481,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>790</v>
+      </c>
+      <c r="B34" t="s">
         <v>791</v>
-      </c>
-      <c r="B34" t="s">
-        <v>792</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -6501,10 +6498,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>792</v>
+      </c>
+      <c r="B35" t="s">
         <v>793</v>
-      </c>
-      <c r="B35" t="s">
-        <v>794</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
@@ -6585,7 +6582,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -6656,10 +6653,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B6" t="s">
         <v>796</v>
-      </c>
-      <c r="B6" t="s">
-        <v>797</v>
       </c>
       <c r="C6" t="s">
         <v>132</v>
@@ -6724,7 +6721,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B10" t="s">
         <v>535</v>
@@ -6741,10 +6738,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>798</v>
+      </c>
+      <c r="B11" t="s">
         <v>799</v>
-      </c>
-      <c r="B11" t="s">
-        <v>800</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -6758,10 +6755,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>800</v>
+      </c>
+      <c r="B12" t="s">
         <v>801</v>
-      </c>
-      <c r="B12" t="s">
-        <v>802</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -6775,10 +6772,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B13" t="s">
         <v>803</v>
-      </c>
-      <c r="B13" t="s">
-        <v>804</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -6792,10 +6789,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>804</v>
+      </c>
+      <c r="B14" t="s">
         <v>805</v>
-      </c>
-      <c r="B14" t="s">
-        <v>806</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -6809,10 +6806,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>806</v>
+      </c>
+      <c r="B15" t="s">
         <v>807</v>
-      </c>
-      <c r="B15" t="s">
-        <v>808</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -6826,10 +6823,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>808</v>
+      </c>
+      <c r="B16" t="s">
         <v>809</v>
-      </c>
-      <c r="B16" t="s">
-        <v>810</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6843,10 +6840,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>810</v>
+      </c>
+      <c r="B17" t="s">
         <v>811</v>
-      </c>
-      <c r="B17" t="s">
-        <v>812</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -6860,10 +6857,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>812</v>
+      </c>
+      <c r="B18" t="s">
         <v>813</v>
-      </c>
-      <c r="B18" t="s">
-        <v>814</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -6877,10 +6874,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>814</v>
+      </c>
+      <c r="B19" t="s">
         <v>815</v>
-      </c>
-      <c r="B19" t="s">
-        <v>816</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -6894,10 +6891,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>816</v>
+      </c>
+      <c r="B20" t="s">
         <v>817</v>
-      </c>
-      <c r="B20" t="s">
-        <v>818</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -6911,10 +6908,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>818</v>
+      </c>
+      <c r="B21" t="s">
         <v>819</v>
-      </c>
-      <c r="B21" t="s">
-        <v>820</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -6928,10 +6925,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>820</v>
+      </c>
+      <c r="B22" t="s">
         <v>821</v>
-      </c>
-      <c r="B22" t="s">
-        <v>822</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -7025,7 +7022,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -7042,7 +7039,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B3" t="s">
         <v>255</v>
@@ -7062,10 +7059,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B4" t="s">
         <v>824</v>
-      </c>
-      <c r="B4" t="s">
-        <v>825</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -7079,10 +7076,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B5" t="s">
         <v>826</v>
-      </c>
-      <c r="B5" t="s">
-        <v>827</v>
       </c>
       <c r="C5" t="s">
         <v>132</v>
@@ -7096,10 +7093,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B6" t="s">
         <v>828</v>
-      </c>
-      <c r="B6" t="s">
-        <v>829</v>
       </c>
       <c r="C6" t="s">
         <v>132</v>
@@ -7113,10 +7110,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>829</v>
+      </c>
+      <c r="B7" t="s">
         <v>830</v>
-      </c>
-      <c r="B7" t="s">
-        <v>831</v>
       </c>
       <c r="C7" t="s">
         <v>132</v>
@@ -7130,10 +7127,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B8" t="s">
         <v>832</v>
-      </c>
-      <c r="B8" t="s">
-        <v>833</v>
       </c>
       <c r="C8" t="s">
         <v>129</v>
@@ -7147,10 +7144,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>833</v>
+      </c>
+      <c r="B9" t="s">
         <v>834</v>
-      </c>
-      <c r="B9" t="s">
-        <v>835</v>
       </c>
       <c r="C9" t="s">
         <v>129</v>
@@ -7164,10 +7161,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B10" t="s">
         <v>836</v>
-      </c>
-      <c r="B10" t="s">
-        <v>837</v>
       </c>
       <c r="C10" t="s">
         <v>132</v>
@@ -7181,10 +7178,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B11" t="s">
         <v>838</v>
-      </c>
-      <c r="B11" t="s">
-        <v>839</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -7198,10 +7195,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B12" t="s">
         <v>840</v>
-      </c>
-      <c r="B12" t="s">
-        <v>841</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -7215,10 +7212,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>841</v>
+      </c>
+      <c r="B13" t="s">
         <v>842</v>
-      </c>
-      <c r="B13" t="s">
-        <v>843</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
@@ -7232,10 +7229,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B14" t="s">
         <v>844</v>
-      </c>
-      <c r="B14" t="s">
-        <v>845</v>
       </c>
       <c r="C14" t="s">
         <v>132</v>
@@ -7249,10 +7246,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>845</v>
+      </c>
+      <c r="B15" t="s">
         <v>846</v>
-      </c>
-      <c r="B15" t="s">
-        <v>847</v>
       </c>
       <c r="C15" t="s">
         <v>132</v>
@@ -7266,10 +7263,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>847</v>
+      </c>
+      <c r="B16" t="s">
         <v>848</v>
-      </c>
-      <c r="B16" t="s">
-        <v>849</v>
       </c>
       <c r="C16" t="s">
         <v>132</v>
@@ -7283,10 +7280,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>849</v>
+      </c>
+      <c r="B17" t="s">
         <v>850</v>
-      </c>
-      <c r="B17" t="s">
-        <v>851</v>
       </c>
       <c r="C17" t="s">
         <v>132</v>
@@ -7300,10 +7297,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>851</v>
+      </c>
+      <c r="B18" t="s">
         <v>852</v>
-      </c>
-      <c r="B18" t="s">
-        <v>853</v>
       </c>
       <c r="C18" t="s">
         <v>132</v>
@@ -7317,10 +7314,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>853</v>
+      </c>
+      <c r="B19" t="s">
         <v>854</v>
-      </c>
-      <c r="B19" t="s">
-        <v>855</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
@@ -7334,10 +7331,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>855</v>
+      </c>
+      <c r="B20" t="s">
         <v>856</v>
-      </c>
-      <c r="B20" t="s">
-        <v>857</v>
       </c>
       <c r="C20" t="s">
         <v>132</v>
@@ -7351,10 +7348,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>857</v>
+      </c>
+      <c r="B21" t="s">
         <v>858</v>
-      </c>
-      <c r="B21" t="s">
-        <v>859</v>
       </c>
       <c r="C21" t="s">
         <v>132</v>
@@ -7368,10 +7365,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>859</v>
+      </c>
+      <c r="B22" t="s">
         <v>860</v>
-      </c>
-      <c r="B22" t="s">
-        <v>861</v>
       </c>
       <c r="C22" t="s">
         <v>132</v>
@@ -7385,10 +7382,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>861</v>
+      </c>
+      <c r="B23" t="s">
         <v>862</v>
-      </c>
-      <c r="B23" t="s">
-        <v>863</v>
       </c>
       <c r="C23" t="s">
         <v>132</v>
@@ -7402,10 +7399,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>863</v>
+      </c>
+      <c r="B24" t="s">
         <v>864</v>
-      </c>
-      <c r="B24" t="s">
-        <v>865</v>
       </c>
       <c r="C24" t="s">
         <v>132</v>
@@ -7419,10 +7416,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>865</v>
+      </c>
+      <c r="B25" t="s">
         <v>866</v>
-      </c>
-      <c r="B25" t="s">
-        <v>867</v>
       </c>
       <c r="C25" t="s">
         <v>132</v>
@@ -7436,10 +7433,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>867</v>
+      </c>
+      <c r="B26" t="s">
         <v>868</v>
-      </c>
-      <c r="B26" t="s">
-        <v>869</v>
       </c>
       <c r="C26" t="s">
         <v>132</v>
@@ -7453,10 +7450,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>869</v>
+      </c>
+      <c r="B27" t="s">
         <v>870</v>
-      </c>
-      <c r="B27" t="s">
-        <v>871</v>
       </c>
       <c r="C27" t="s">
         <v>132</v>
@@ -7470,10 +7467,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>871</v>
+      </c>
+      <c r="B28" t="s">
         <v>872</v>
-      </c>
-      <c r="B28" t="s">
-        <v>873</v>
       </c>
       <c r="C28" t="s">
         <v>132</v>
@@ -7487,10 +7484,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>873</v>
+      </c>
+      <c r="B29" t="s">
         <v>874</v>
-      </c>
-      <c r="B29" t="s">
-        <v>875</v>
       </c>
       <c r="C29" t="s">
         <v>132</v>
@@ -7504,10 +7501,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>875</v>
+      </c>
+      <c r="B30" t="s">
         <v>876</v>
-      </c>
-      <c r="B30" t="s">
-        <v>877</v>
       </c>
       <c r="C30" t="s">
         <v>132</v>
@@ -7521,10 +7518,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>877</v>
+      </c>
+      <c r="B31" t="s">
         <v>878</v>
-      </c>
-      <c r="B31" t="s">
-        <v>879</v>
       </c>
       <c r="C31" t="s">
         <v>132</v>
@@ -7538,10 +7535,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>879</v>
+      </c>
+      <c r="B32" t="s">
         <v>880</v>
-      </c>
-      <c r="B32" t="s">
-        <v>881</v>
       </c>
       <c r="C32" t="s">
         <v>132</v>
@@ -7555,10 +7552,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>881</v>
+      </c>
+      <c r="B33" t="s">
         <v>882</v>
-      </c>
-      <c r="B33" t="s">
-        <v>883</v>
       </c>
       <c r="C33" t="s">
         <v>132</v>
@@ -7572,10 +7569,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>883</v>
+      </c>
+      <c r="B34" t="s">
         <v>884</v>
-      </c>
-      <c r="B34" t="s">
-        <v>885</v>
       </c>
       <c r="C34" t="s">
         <v>129</v>
@@ -7589,10 +7586,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>885</v>
+      </c>
+      <c r="B35" t="s">
         <v>886</v>
-      </c>
-      <c r="B35" t="s">
-        <v>887</v>
       </c>
       <c r="C35" t="s">
         <v>129</v>
@@ -7606,10 +7603,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>887</v>
+      </c>
+      <c r="B36" t="s">
         <v>888</v>
-      </c>
-      <c r="B36" t="s">
-        <v>889</v>
       </c>
       <c r="C36" t="s">
         <v>129</v>
@@ -7623,10 +7620,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>889</v>
+      </c>
+      <c r="B37" t="s">
         <v>890</v>
-      </c>
-      <c r="B37" t="s">
-        <v>891</v>
       </c>
       <c r="C37" t="s">
         <v>129</v>
@@ -7640,10 +7637,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>891</v>
+      </c>
+      <c r="B38" t="s">
         <v>892</v>
-      </c>
-      <c r="B38" t="s">
-        <v>893</v>
       </c>
       <c r="C38" t="s">
         <v>129</v>
@@ -7657,10 +7654,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>893</v>
+      </c>
+      <c r="B39" t="s">
         <v>894</v>
-      </c>
-      <c r="B39" t="s">
-        <v>895</v>
       </c>
       <c r="C39" t="s">
         <v>129</v>
@@ -7674,10 +7671,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>895</v>
+      </c>
+      <c r="B40" t="s">
         <v>896</v>
-      </c>
-      <c r="B40" t="s">
-        <v>897</v>
       </c>
       <c r="C40" t="s">
         <v>129</v>
@@ -7691,10 +7688,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>897</v>
+      </c>
+      <c r="B41" t="s">
         <v>898</v>
-      </c>
-      <c r="B41" t="s">
-        <v>899</v>
       </c>
       <c r="C41" t="s">
         <v>132</v>
@@ -7708,10 +7705,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>899</v>
+      </c>
+      <c r="B42" t="s">
         <v>900</v>
-      </c>
-      <c r="B42" t="s">
-        <v>901</v>
       </c>
       <c r="C42" t="s">
         <v>132</v>
@@ -7725,10 +7722,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>901</v>
+      </c>
+      <c r="B43" t="s">
         <v>902</v>
-      </c>
-      <c r="B43" t="s">
-        <v>903</v>
       </c>
       <c r="C43" t="s">
         <v>132</v>
@@ -7742,10 +7739,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>903</v>
+      </c>
+      <c r="B44" t="s">
         <v>904</v>
-      </c>
-      <c r="B44" t="s">
-        <v>905</v>
       </c>
       <c r="C44" t="s">
         <v>132</v>
@@ -7759,10 +7756,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>905</v>
+      </c>
+      <c r="B45" t="s">
         <v>906</v>
-      </c>
-      <c r="B45" t="s">
-        <v>907</v>
       </c>
       <c r="C45" t="s">
         <v>132</v>
@@ -7776,10 +7773,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>907</v>
+      </c>
+      <c r="B46" t="s">
         <v>908</v>
-      </c>
-      <c r="B46" t="s">
-        <v>909</v>
       </c>
       <c r="C46" t="s">
         <v>132</v>
@@ -7793,10 +7790,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>909</v>
+      </c>
+      <c r="B47" t="s">
         <v>910</v>
-      </c>
-      <c r="B47" t="s">
-        <v>911</v>
       </c>
       <c r="C47" t="s">
         <v>132</v>
@@ -7810,10 +7807,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>911</v>
+      </c>
+      <c r="B48" t="s">
         <v>912</v>
-      </c>
-      <c r="B48" t="s">
-        <v>913</v>
       </c>
       <c r="C48" t="s">
         <v>132</v>
@@ -7827,10 +7824,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>913</v>
+      </c>
+      <c r="B49" t="s">
         <v>914</v>
-      </c>
-      <c r="B49" t="s">
-        <v>915</v>
       </c>
       <c r="C49" t="s">
         <v>132</v>
@@ -7844,10 +7841,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
+        <v>915</v>
+      </c>
+      <c r="B50" t="s">
         <v>916</v>
-      </c>
-      <c r="B50" t="s">
-        <v>917</v>
       </c>
       <c r="C50" t="s">
         <v>129</v>
@@ -7861,10 +7858,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>917</v>
+      </c>
+      <c r="B51" t="s">
         <v>918</v>
-      </c>
-      <c r="B51" t="s">
-        <v>919</v>
       </c>
       <c r="C51" t="s">
         <v>129</v>
@@ -7878,10 +7875,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>919</v>
+      </c>
+      <c r="B52" t="s">
         <v>920</v>
-      </c>
-      <c r="B52" t="s">
-        <v>921</v>
       </c>
       <c r="C52" t="s">
         <v>129</v>
@@ -7895,10 +7892,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>921</v>
+      </c>
+      <c r="B53" t="s">
         <v>922</v>
-      </c>
-      <c r="B53" t="s">
-        <v>923</v>
       </c>
       <c r="C53" t="s">
         <v>132</v>
@@ -7912,10 +7909,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>923</v>
+      </c>
+      <c r="B54" t="s">
         <v>924</v>
-      </c>
-      <c r="B54" t="s">
-        <v>925</v>
       </c>
       <c r="C54" t="s">
         <v>132</v>
@@ -7929,10 +7926,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>925</v>
+      </c>
+      <c r="B55" t="s">
         <v>926</v>
-      </c>
-      <c r="B55" t="s">
-        <v>927</v>
       </c>
       <c r="C55" t="s">
         <v>132</v>
@@ -7946,10 +7943,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>927</v>
+      </c>
+      <c r="B56" t="s">
         <v>928</v>
-      </c>
-      <c r="B56" t="s">
-        <v>929</v>
       </c>
       <c r="C56" t="s">
         <v>132</v>
@@ -7963,10 +7960,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
+        <v>929</v>
+      </c>
+      <c r="B57" t="s">
         <v>930</v>
-      </c>
-      <c r="B57" t="s">
-        <v>931</v>
       </c>
       <c r="C57" t="s">
         <v>132</v>
@@ -7980,10 +7977,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
+        <v>931</v>
+      </c>
+      <c r="B58" t="s">
         <v>932</v>
-      </c>
-      <c r="B58" t="s">
-        <v>933</v>
       </c>
       <c r="C58" t="s">
         <v>132</v>
@@ -7997,10 +7994,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>933</v>
+      </c>
+      <c r="B59" t="s">
         <v>934</v>
-      </c>
-      <c r="B59" t="s">
-        <v>935</v>
       </c>
       <c r="C59" t="s">
         <v>132</v>
@@ -8014,10 +8011,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>935</v>
+      </c>
+      <c r="B60" t="s">
         <v>936</v>
-      </c>
-      <c r="B60" t="s">
-        <v>937</v>
       </c>
       <c r="C60" t="s">
         <v>132</v>
@@ -8031,10 +8028,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>937</v>
+      </c>
+      <c r="B61" t="s">
         <v>938</v>
-      </c>
-      <c r="B61" t="s">
-        <v>939</v>
       </c>
       <c r="C61" t="s">
         <v>132</v>
@@ -8048,10 +8045,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>939</v>
+      </c>
+      <c r="B62" t="s">
         <v>940</v>
-      </c>
-      <c r="B62" t="s">
-        <v>941</v>
       </c>
       <c r="C62" t="s">
         <v>132</v>
@@ -8065,10 +8062,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>941</v>
+      </c>
+      <c r="B63" t="s">
         <v>942</v>
-      </c>
-      <c r="B63" t="s">
-        <v>943</v>
       </c>
       <c r="C63" t="s">
         <v>132</v>
@@ -8082,10 +8079,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>943</v>
+      </c>
+      <c r="B64" t="s">
         <v>944</v>
-      </c>
-      <c r="B64" t="s">
-        <v>945</v>
       </c>
       <c r="C64" t="s">
         <v>132</v>
@@ -8099,10 +8096,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>945</v>
+      </c>
+      <c r="B65" t="s">
         <v>946</v>
-      </c>
-      <c r="B65" t="s">
-        <v>947</v>
       </c>
       <c r="C65" t="s">
         <v>132</v>
@@ -8116,10 +8113,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>947</v>
+      </c>
+      <c r="B66" t="s">
         <v>948</v>
-      </c>
-      <c r="B66" t="s">
-        <v>949</v>
       </c>
       <c r="C66" t="s">
         <v>132</v>
@@ -8133,10 +8130,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>949</v>
+      </c>
+      <c r="B67" t="s">
         <v>950</v>
-      </c>
-      <c r="B67" t="s">
-        <v>951</v>
       </c>
       <c r="C67" t="s">
         <v>132</v>
@@ -8150,10 +8147,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>951</v>
+      </c>
+      <c r="B68" t="s">
         <v>952</v>
-      </c>
-      <c r="B68" t="s">
-        <v>953</v>
       </c>
       <c r="C68" t="s">
         <v>132</v>
@@ -8167,10 +8164,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>953</v>
+      </c>
+      <c r="B69" t="s">
         <v>954</v>
-      </c>
-      <c r="B69" t="s">
-        <v>955</v>
       </c>
       <c r="C69" t="s">
         <v>132</v>
@@ -8184,10 +8181,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>955</v>
+      </c>
+      <c r="B70" t="s">
         <v>956</v>
-      </c>
-      <c r="B70" t="s">
-        <v>957</v>
       </c>
       <c r="C70" t="s">
         <v>132</v>
@@ -8201,10 +8198,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>957</v>
+      </c>
+      <c r="B71" t="s">
         <v>958</v>
-      </c>
-      <c r="B71" t="s">
-        <v>959</v>
       </c>
       <c r="C71" t="s">
         <v>132</v>
@@ -8218,10 +8215,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>959</v>
+      </c>
+      <c r="B72" t="s">
         <v>960</v>
-      </c>
-      <c r="B72" t="s">
-        <v>961</v>
       </c>
       <c r="C72" t="s">
         <v>132</v>
@@ -8235,10 +8232,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>961</v>
+      </c>
+      <c r="B73" t="s">
         <v>962</v>
-      </c>
-      <c r="B73" t="s">
-        <v>963</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -8252,10 +8249,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>963</v>
+      </c>
+      <c r="B74" t="s">
         <v>964</v>
-      </c>
-      <c r="B74" t="s">
-        <v>965</v>
       </c>
       <c r="C74" t="s">
         <v>129</v>
@@ -8269,10 +8266,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
+        <v>965</v>
+      </c>
+      <c r="B75" t="s">
         <v>966</v>
-      </c>
-      <c r="B75" t="s">
-        <v>967</v>
       </c>
       <c r="C75" t="s">
         <v>129</v>
@@ -8286,10 +8283,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>967</v>
+      </c>
+      <c r="B76" t="s">
         <v>968</v>
-      </c>
-      <c r="B76" t="s">
-        <v>969</v>
       </c>
       <c r="C76" t="s">
         <v>129</v>
@@ -8303,10 +8300,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>969</v>
+      </c>
+      <c r="B77" t="s">
         <v>970</v>
-      </c>
-      <c r="B77" t="s">
-        <v>971</v>
       </c>
       <c r="C77" t="s">
         <v>129</v>
@@ -8320,10 +8317,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
+        <v>971</v>
+      </c>
+      <c r="B78" t="s">
         <v>972</v>
-      </c>
-      <c r="B78" t="s">
-        <v>973</v>
       </c>
       <c r="C78" t="s">
         <v>129</v>
@@ -8337,10 +8334,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
+        <v>973</v>
+      </c>
+      <c r="B79" t="s">
         <v>974</v>
-      </c>
-      <c r="B79" t="s">
-        <v>975</v>
       </c>
       <c r="C79" t="s">
         <v>129</v>
@@ -8354,10 +8351,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
+        <v>975</v>
+      </c>
+      <c r="B80" t="s">
         <v>976</v>
-      </c>
-      <c r="B80" t="s">
-        <v>977</v>
       </c>
       <c r="C80" t="s">
         <v>129</v>
@@ -8371,10 +8368,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
+        <v>977</v>
+      </c>
+      <c r="B81" t="s">
         <v>978</v>
-      </c>
-      <c r="B81" t="s">
-        <v>979</v>
       </c>
       <c r="C81" t="s">
         <v>129</v>
@@ -8388,10 +8385,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
+        <v>979</v>
+      </c>
+      <c r="B82" t="s">
         <v>980</v>
-      </c>
-      <c r="B82" t="s">
-        <v>981</v>
       </c>
       <c r="C82" t="s">
         <v>129</v>
@@ -8464,7 +8461,7 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -8535,10 +8532,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B4" t="s">
         <v>982</v>
-      </c>
-      <c r="B4" t="s">
-        <v>983</v>
       </c>
       <c r="C4" t="s">
         <v>129</v>
@@ -8552,10 +8549,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>983</v>
+      </c>
+      <c r="B5" t="s">
         <v>984</v>
-      </c>
-      <c r="B5" t="s">
-        <v>985</v>
       </c>
       <c r="C5" t="s">
         <v>129</v>
@@ -8569,10 +8566,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C6" t="s">
         <v>129</v>
@@ -8586,10 +8583,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B7" t="s">
         <v>987</v>
-      </c>
-      <c r="B7" t="s">
-        <v>988</v>
       </c>
       <c r="C7" t="s">
         <v>129</v>
@@ -8603,10 +8600,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>988</v>
+      </c>
+      <c r="B8" t="s">
         <v>989</v>
-      </c>
-      <c r="B8" t="s">
-        <v>990</v>
       </c>
       <c r="C8" t="s">
         <v>129</v>
@@ -8620,10 +8617,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C9" t="s">
         <v>129</v>
@@ -8637,10 +8634,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>991</v>
+      </c>
+      <c r="B10" t="s">
         <v>992</v>
-      </c>
-      <c r="B10" t="s">
-        <v>993</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -8654,10 +8651,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>993</v>
+      </c>
+      <c r="B11" t="s">
         <v>994</v>
-      </c>
-      <c r="B11" t="s">
-        <v>995</v>
       </c>
       <c r="C11" t="s">
         <v>129</v>
@@ -8671,10 +8668,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>995</v>
+      </c>
+      <c r="B12" t="s">
         <v>996</v>
-      </c>
-      <c r="B12" t="s">
-        <v>997</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -8688,10 +8685,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>997</v>
+      </c>
+      <c r="B13" t="s">
         <v>998</v>
-      </c>
-      <c r="B13" t="s">
-        <v>999</v>
       </c>
       <c r="C13" t="s">
         <v>129</v>
@@ -8705,10 +8702,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>999</v>
+      </c>
+      <c r="B14" t="s">
         <v>1000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1001</v>
       </c>
       <c r="C14" t="s">
         <v>129</v>
@@ -8722,10 +8719,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B15" t="s">
         <v>1002</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1003</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -8739,10 +8736,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B16" t="s">
         <v>1004</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1005</v>
       </c>
       <c r="C16" t="s">
         <v>129</v>
@@ -8756,10 +8753,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B17" t="s">
         <v>1006</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1007</v>
       </c>
       <c r="C17" t="s">
         <v>129</v>
@@ -8773,10 +8770,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B18" t="s">
         <v>1008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1009</v>
       </c>
       <c r="C18" t="s">
         <v>129</v>
@@ -8790,10 +8787,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B19" t="s">
         <v>1010</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1011</v>
       </c>
       <c r="C19" t="s">
         <v>129</v>
@@ -8807,10 +8804,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B20" t="s">
         <v>1012</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1013</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
@@ -8824,10 +8821,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B21" t="s">
         <v>1014</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1015</v>
       </c>
       <c r="C21" t="s">
         <v>129</v>
@@ -8841,10 +8838,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B22" t="s">
         <v>1016</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1017</v>
       </c>
       <c r="C22" t="s">
         <v>129</v>
@@ -8858,10 +8855,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B23" t="s">
         <v>1018</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1019</v>
       </c>
       <c r="C23" t="s">
         <v>129</v>
@@ -8875,10 +8872,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B24" t="s">
         <v>1020</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1021</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -8892,10 +8889,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -8909,10 +8906,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B26" t="s">
         <v>1023</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1024</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -8926,10 +8923,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B27" t="s">
         <v>1025</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1026</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -8943,10 +8940,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -8960,10 +8957,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B29" t="s">
         <v>1028</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1029</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -8977,10 +8974,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B30" t="s">
         <v>1030</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1031</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -8994,10 +8991,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B31" t="s">
         <v>1032</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1033</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -9011,10 +9008,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B32" t="s">
         <v>1034</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1035</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -9028,10 +9025,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B33" t="s">
         <v>1036</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1037</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -9045,10 +9042,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B34" t="s">
         <v>1038</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1039</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -9062,10 +9059,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B35" t="s">
         <v>1040</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1041</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
@@ -9079,10 +9076,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B36" t="s">
         <v>1042</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1043</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -9096,10 +9093,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B37" t="s">
         <v>1044</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1045</v>
       </c>
       <c r="C37" t="s">
         <v>66</v>
@@ -9113,10 +9110,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B38" t="s">
         <v>1046</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1047</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
@@ -9130,10 +9127,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B39" t="s">
         <v>1048</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1049</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -9147,10 +9144,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B40" t="s">
         <v>1050</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1051</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
@@ -9164,10 +9161,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B41" t="s">
         <v>1052</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1053</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -9181,10 +9178,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B42" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
@@ -9198,10 +9195,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B43" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
@@ -9215,10 +9212,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B44" t="s">
         <v>1056</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1057</v>
       </c>
       <c r="C44" t="s">
         <v>66</v>
@@ -9232,10 +9229,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B45" t="s">
         <v>1058</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1059</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
@@ -9249,10 +9246,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B46" t="s">
         <v>1060</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1061</v>
       </c>
       <c r="C46" t="s">
         <v>66</v>
@@ -9266,10 +9263,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B47" t="s">
         <v>1062</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1063</v>
       </c>
       <c r="C47" t="s">
         <v>66</v>
@@ -9283,7 +9280,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B48" t="s">
         <v>525</v>
@@ -9300,10 +9297,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>823</v>
+      </c>
+      <c r="B49" t="s">
         <v>824</v>
-      </c>
-      <c r="B49" t="s">
-        <v>825</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
@@ -9317,10 +9314,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B50" t="s">
         <v>1065</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1066</v>
       </c>
       <c r="C50" t="s">
         <v>66</v>
@@ -9334,10 +9331,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>825</v>
+      </c>
+      <c r="B51" t="s">
         <v>826</v>
-      </c>
-      <c r="B51" t="s">
-        <v>827</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -9351,10 +9348,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B52" t="s">
         <v>1067</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1068</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
@@ -9368,10 +9365,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B53" t="s">
         <v>1069</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1070</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
@@ -9385,10 +9382,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B54" t="s">
         <v>1071</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1072</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
@@ -9402,10 +9399,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B55" t="s">
         <v>1073</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1074</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
@@ -9419,10 +9416,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B56" t="s">
         <v>1075</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1076</v>
       </c>
       <c r="C56" t="s">
         <v>66</v>
@@ -9436,10 +9433,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B57" t="s">
         <v>1077</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1078</v>
       </c>
       <c r="C57" t="s">
         <v>66</v>
@@ -9453,10 +9450,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B58" t="s">
         <v>1079</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1080</v>
       </c>
       <c r="C58" t="s">
         <v>66</v>
@@ -9470,10 +9467,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B59" t="s">
         <v>1081</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1082</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -9487,10 +9484,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B60" t="s">
         <v>1083</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1084</v>
       </c>
       <c r="C60" t="s">
         <v>66</v>
@@ -9504,10 +9501,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B61" t="s">
         <v>1085</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1086</v>
       </c>
       <c r="C61" t="s">
         <v>66</v>
@@ -9521,10 +9518,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B62" t="s">
         <v>1087</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1088</v>
       </c>
       <c r="C62" t="s">
         <v>66</v>
@@ -9538,10 +9535,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B63" t="s">
         <v>1089</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1090</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -9555,10 +9552,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B64" t="s">
         <v>1091</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1092</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
@@ -9572,10 +9569,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B65" t="s">
         <v>1093</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1094</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -9589,10 +9586,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B66" t="s">
         <v>1095</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1096</v>
       </c>
       <c r="C66" t="s">
         <v>66</v>
@@ -9606,10 +9603,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B67" t="s">
         <v>1097</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1098</v>
       </c>
       <c r="C67" t="s">
         <v>66</v>
@@ -9623,10 +9620,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B68" t="s">
         <v>1099</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1100</v>
       </c>
       <c r="C68" t="s">
         <v>66</v>
@@ -9640,10 +9637,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B69" t="s">
         <v>1101</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1102</v>
       </c>
       <c r="C69" t="s">
         <v>66</v>
@@ -9657,10 +9654,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B70" t="s">
         <v>1103</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1104</v>
       </c>
       <c r="C70" t="s">
         <v>66</v>
@@ -9674,10 +9671,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B71" t="s">
         <v>1105</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1106</v>
       </c>
       <c r="C71" t="s">
         <v>66</v>
@@ -9691,10 +9688,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B72" t="s">
         <v>1107</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1108</v>
       </c>
       <c r="C72" t="s">
         <v>66</v>
@@ -9708,10 +9705,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B73" t="s">
         <v>1109</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1110</v>
       </c>
       <c r="C73" t="s">
         <v>66</v>
@@ -9725,10 +9722,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B74" t="s">
         <v>1111</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1112</v>
       </c>
       <c r="C74" t="s">
         <v>66</v>
@@ -9742,10 +9739,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B75" t="s">
         <v>1113</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1114</v>
       </c>
       <c r="C75" t="s">
         <v>66</v>
@@ -9759,10 +9756,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B76" t="s">
         <v>1115</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1116</v>
       </c>
       <c r="C76" t="s">
         <v>66</v>
@@ -9776,10 +9773,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B77" t="s">
         <v>1117</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1118</v>
       </c>
       <c r="C77" t="s">
         <v>66</v>
@@ -9793,10 +9790,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B78" t="s">
         <v>1119</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1120</v>
       </c>
       <c r="C78" t="s">
         <v>66</v>
@@ -9810,10 +9807,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B79" t="s">
         <v>1121</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1122</v>
       </c>
       <c r="C79" t="s">
         <v>66</v>
@@ -9827,10 +9824,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B80" t="s">
         <v>1123</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1124</v>
       </c>
       <c r="C80" t="s">
         <v>66</v>
@@ -9844,10 +9841,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B81" t="s">
         <v>1125</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1126</v>
       </c>
       <c r="C81" t="s">
         <v>66</v>
@@ -9861,10 +9858,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B82" t="s">
         <v>1127</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1128</v>
       </c>
       <c r="C82" t="s">
         <v>66</v>
@@ -9878,10 +9875,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B83" t="s">
         <v>1129</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1130</v>
       </c>
       <c r="C83" t="s">
         <v>66</v>
@@ -9895,10 +9892,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B84" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C84" t="s">
         <v>66</v>
@@ -9912,10 +9909,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B85" t="s">
         <v>1132</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1133</v>
       </c>
       <c r="C85" t="s">
         <v>66</v>
@@ -9929,10 +9926,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B86" t="s">
         <v>1134</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1135</v>
       </c>
       <c r="C86" t="s">
         <v>66</v>
@@ -9946,10 +9943,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B87" t="s">
         <v>1136</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1137</v>
       </c>
       <c r="C87" t="s">
         <v>66</v>
@@ -9963,10 +9960,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B88" t="s">
         <v>1138</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1139</v>
       </c>
       <c r="C88" t="s">
         <v>66</v>
@@ -9980,10 +9977,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B89" t="s">
         <v>1140</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1141</v>
       </c>
       <c r="C89" t="s">
         <v>66</v>
@@ -9997,10 +9994,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B90" t="s">
         <v>1142</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1143</v>
       </c>
       <c r="C90" t="s">
         <v>66</v>
@@ -10014,10 +10011,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B91" t="s">
         <v>1144</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1145</v>
       </c>
       <c r="C91" t="s">
         <v>66</v>
@@ -10031,10 +10028,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B92" t="s">
         <v>1146</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1147</v>
       </c>
       <c r="C92" t="s">
         <v>66</v>
@@ -10048,10 +10045,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B93" t="s">
         <v>1148</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1149</v>
       </c>
       <c r="C93" t="s">
         <v>66</v>
@@ -10065,10 +10062,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B94" t="s">
         <v>1150</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1151</v>
       </c>
       <c r="C94" t="s">
         <v>66</v>
@@ -10082,10 +10079,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B95" t="s">
         <v>1152</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1153</v>
       </c>
       <c r="C95" t="s">
         <v>66</v>
@@ -10099,10 +10096,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B96" t="s">
         <v>1154</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1155</v>
       </c>
       <c r="C96" t="s">
         <v>66</v>
@@ -10116,10 +10113,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B97" t="s">
         <v>1156</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1157</v>
       </c>
       <c r="C97" t="s">
         <v>129</v>
@@ -10133,10 +10130,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B98" t="s">
         <v>1158</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1159</v>
       </c>
       <c r="C98" t="s">
         <v>129</v>
@@ -10150,10 +10147,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B99" t="s">
         <v>1160</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1161</v>
       </c>
       <c r="C99" t="s">
         <v>129</v>
@@ -10167,10 +10164,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B100" t="s">
         <v>1162</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1163</v>
       </c>
       <c r="C100" t="s">
         <v>129</v>
@@ -10184,10 +10181,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B101" t="s">
         <v>1164</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1165</v>
       </c>
       <c r="C101" t="s">
         <v>129</v>
@@ -10201,10 +10198,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B102" t="s">
         <v>1166</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1167</v>
       </c>
       <c r="C102" t="s">
         <v>129</v>
@@ -10218,10 +10215,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B103" t="s">
         <v>1168</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1169</v>
       </c>
       <c r="C103" t="s">
         <v>129</v>
@@ -10235,10 +10232,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B104" t="s">
         <v>1170</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1171</v>
       </c>
       <c r="C104" t="s">
         <v>129</v>
@@ -10286,10 +10283,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B107" t="s">
         <v>1172</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1173</v>
       </c>
       <c r="C107" t="s">
         <v>66</v>
@@ -10303,10 +10300,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B108" t="s">
         <v>1174</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1175</v>
       </c>
       <c r="C108" t="s">
         <v>66</v>
@@ -10320,10 +10317,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B109" t="s">
         <v>1176</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1177</v>
       </c>
       <c r="C109" t="s">
         <v>66</v>
@@ -10337,10 +10334,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B110" t="s">
         <v>1178</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1179</v>
       </c>
       <c r="C110" t="s">
         <v>66</v>
@@ -10354,10 +10351,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B111" t="s">
         <v>1180</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1181</v>
       </c>
       <c r="C111" t="s">
         <v>129</v>
@@ -10371,10 +10368,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B112" t="s">
         <v>1182</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1183</v>
       </c>
       <c r="C112" t="s">
         <v>66</v>
@@ -10388,10 +10385,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B113" t="s">
         <v>1184</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1185</v>
       </c>
       <c r="C113" t="s">
         <v>66</v>
@@ -10405,10 +10402,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B114" t="s">
         <v>1186</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1187</v>
       </c>
       <c r="C114" t="s">
         <v>66</v>
@@ -10422,10 +10419,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B115" t="s">
         <v>1188</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1189</v>
       </c>
       <c r="C115" t="s">
         <v>66</v>
@@ -10439,10 +10436,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B116" t="s">
         <v>1190</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1191</v>
       </c>
       <c r="C116" t="s">
         <v>66</v>
@@ -10456,10 +10453,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B117" t="s">
         <v>1192</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1193</v>
       </c>
       <c r="C117" t="s">
         <v>66</v>
@@ -10473,10 +10470,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B118" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C118" t="s">
         <v>66</v>
@@ -10490,10 +10487,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B119" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C119" t="s">
         <v>66</v>
@@ -10507,10 +10504,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B120" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C120" t="s">
         <v>66</v>
@@ -10524,10 +10521,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B121" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C121" t="s">
         <v>66</v>
@@ -10541,10 +10538,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B122" t="s">
         <v>1198</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1199</v>
       </c>
       <c r="C122" t="s">
         <v>66</v>
@@ -10558,10 +10555,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B123" t="s">
         <v>1200</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1201</v>
       </c>
       <c r="C123" t="s">
         <v>66</v>
@@ -10575,10 +10572,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B124" t="s">
         <v>1202</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1203</v>
       </c>
       <c r="C124" t="s">
         <v>66</v>
@@ -10592,10 +10589,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B125" t="s">
         <v>1204</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1205</v>
       </c>
       <c r="C125" t="s">
         <v>66</v>
@@ -10609,10 +10606,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B126" t="s">
         <v>1206</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1207</v>
       </c>
       <c r="C126" t="s">
         <v>66</v>
@@ -10626,10 +10623,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B127" t="s">
         <v>1208</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1209</v>
       </c>
       <c r="C127" t="s">
         <v>66</v>
@@ -10643,10 +10640,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B128" t="s">
         <v>1210</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1211</v>
       </c>
       <c r="C128" t="s">
         <v>66</v>
@@ -10660,10 +10657,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B129" t="s">
         <v>1212</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1213</v>
       </c>
       <c r="C129" t="s">
         <v>66</v>
@@ -10677,10 +10674,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B130" t="s">
         <v>1214</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1215</v>
       </c>
       <c r="C130" t="s">
         <v>66</v>
@@ -10694,10 +10691,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B131" t="s">
         <v>1216</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1217</v>
       </c>
       <c r="C131" t="s">
         <v>66</v>
@@ -10711,10 +10708,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B132" t="s">
         <v>1218</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1219</v>
       </c>
       <c r="C132" t="s">
         <v>66</v>
@@ -10728,10 +10725,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B133" t="s">
         <v>1220</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1221</v>
       </c>
       <c r="C133" t="s">
         <v>66</v>
@@ -10745,10 +10742,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B134" t="s">
         <v>1222</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1223</v>
       </c>
       <c r="C134" t="s">
         <v>66</v>
@@ -10762,10 +10759,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B135" t="s">
         <v>1224</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1225</v>
       </c>
       <c r="C135" t="s">
         <v>66</v>
@@ -10779,10 +10776,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B136" t="s">
         <v>1226</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1227</v>
       </c>
       <c r="C136" t="s">
         <v>66</v>
@@ -10796,10 +10793,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B137" t="s">
         <v>1228</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1229</v>
       </c>
       <c r="C137" t="s">
         <v>66</v>
@@ -10813,10 +10810,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B138" t="s">
         <v>1230</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1231</v>
       </c>
       <c r="C138" t="s">
         <v>66</v>
@@ -10830,10 +10827,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B139" t="s">
         <v>1232</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1233</v>
       </c>
       <c r="C139" t="s">
         <v>66</v>
@@ -10847,10 +10844,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B140" t="s">
         <v>1234</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1235</v>
       </c>
       <c r="C140" t="s">
         <v>66</v>
@@ -10864,10 +10861,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B141" t="s">
         <v>1236</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1237</v>
       </c>
       <c r="C141" t="s">
         <v>66</v>
@@ -10881,10 +10878,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B142" t="s">
         <v>1238</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1239</v>
       </c>
       <c r="C142" t="s">
         <v>66</v>
@@ -10898,10 +10895,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B143" t="s">
         <v>1240</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1241</v>
       </c>
       <c r="C143" t="s">
         <v>66</v>
@@ -10915,10 +10912,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B144" t="s">
         <v>1242</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1243</v>
       </c>
       <c r="C144" t="s">
         <v>66</v>
@@ -10932,10 +10929,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B145" t="s">
         <v>1244</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1245</v>
       </c>
       <c r="C145" t="s">
         <v>66</v>
@@ -10949,10 +10946,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B146" t="s">
         <v>1246</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1247</v>
       </c>
       <c r="C146" t="s">
         <v>66</v>
@@ -10966,10 +10963,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B147" t="s">
         <v>1248</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1249</v>
       </c>
       <c r="C147" t="s">
         <v>66</v>
@@ -10983,10 +10980,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B148" t="s">
         <v>1250</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1251</v>
       </c>
       <c r="C148" t="s">
         <v>66</v>
@@ -11000,10 +10997,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B149" t="s">
         <v>1252</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1253</v>
       </c>
       <c r="C149" t="s">
         <v>66</v>
@@ -11017,10 +11014,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B150" t="s">
         <v>1254</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1255</v>
       </c>
       <c r="C150" t="s">
         <v>66</v>
@@ -11034,10 +11031,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B151" t="s">
         <v>1256</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1257</v>
       </c>
       <c r="C151" t="s">
         <v>66</v>
@@ -11051,10 +11048,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B152" t="s">
         <v>1258</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1259</v>
       </c>
       <c r="C152" t="s">
         <v>66</v>
@@ -11068,10 +11065,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B153" t="s">
         <v>1260</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1261</v>
       </c>
       <c r="C153" t="s">
         <v>66</v>
@@ -11085,10 +11082,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B154" t="s">
         <v>1262</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1263</v>
       </c>
       <c r="C154" t="s">
         <v>66</v>
@@ -11102,10 +11099,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B155" t="s">
         <v>1264</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1265</v>
       </c>
       <c r="C155" t="s">
         <v>129</v>
@@ -11119,10 +11116,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B156" t="s">
         <v>1266</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1267</v>
       </c>
       <c r="C156" t="s">
         <v>129</v>
@@ -11136,10 +11133,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B157" t="s">
         <v>1268</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1269</v>
       </c>
       <c r="C157" t="s">
         <v>129</v>
@@ -11153,10 +11150,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B158" t="s">
         <v>1270</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1271</v>
       </c>
       <c r="C158" t="s">
         <v>129</v>
@@ -11170,10 +11167,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B159" t="s">
         <v>1272</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1273</v>
       </c>
       <c r="C159" t="s">
         <v>129</v>
@@ -11187,10 +11184,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B160" t="s">
         <v>1274</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1275</v>
       </c>
       <c r="C160" t="s">
         <v>129</v>
@@ -11204,10 +11201,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B161" t="s">
         <v>1276</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1277</v>
       </c>
       <c r="C161" t="s">
         <v>129</v>
@@ -11221,10 +11218,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B162" t="s">
         <v>1278</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1279</v>
       </c>
       <c r="C162" t="s">
         <v>129</v>
@@ -11238,10 +11235,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B163" t="s">
         <v>1280</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1281</v>
       </c>
       <c r="C163" t="s">
         <v>129</v>
@@ -11255,10 +11252,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B164" t="s">
         <v>1282</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1283</v>
       </c>
       <c r="C164" t="s">
         <v>129</v>
@@ -11272,10 +11269,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B165" t="s">
         <v>1284</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1285</v>
       </c>
       <c r="C165" t="s">
         <v>129</v>
@@ -11289,10 +11286,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B166" t="s">
         <v>1286</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1287</v>
       </c>
       <c r="C166" t="s">
         <v>129</v>
@@ -11306,10 +11303,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B167" t="s">
         <v>1288</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1289</v>
       </c>
       <c r="C167" t="s">
         <v>129</v>
@@ -11323,10 +11320,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B168" t="s">
         <v>1290</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1291</v>
       </c>
       <c r="C168" t="s">
         <v>129</v>
@@ -11340,10 +11337,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B169" t="s">
         <v>1292</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1293</v>
       </c>
       <c r="C169" t="s">
         <v>129</v>
@@ -11357,10 +11354,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B170" t="s">
         <v>1294</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1295</v>
       </c>
       <c r="C170" t="s">
         <v>129</v>
@@ -11374,10 +11371,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B171" t="s">
         <v>1296</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1297</v>
       </c>
       <c r="C171" t="s">
         <v>129</v>
@@ -11391,10 +11388,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B172" t="s">
         <v>1298</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1299</v>
       </c>
       <c r="C172" t="s">
         <v>129</v>
@@ -11408,10 +11405,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B173" t="s">
         <v>1300</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1301</v>
       </c>
       <c r="C173" t="s">
         <v>129</v>
@@ -11425,10 +11422,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B174" t="s">
         <v>1302</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1303</v>
       </c>
       <c r="C174" t="s">
         <v>129</v>
@@ -11442,10 +11439,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B175" t="s">
         <v>1304</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1305</v>
       </c>
       <c r="C175" t="s">
         <v>129</v>
@@ -11459,10 +11456,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B176" t="s">
         <v>1306</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1307</v>
       </c>
       <c r="C176" t="s">
         <v>129</v>
@@ -11476,10 +11473,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B177" t="s">
         <v>1308</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1309</v>
       </c>
       <c r="C177" t="s">
         <v>8</v>
@@ -11493,10 +11490,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B178" t="s">
         <v>1310</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1311</v>
       </c>
       <c r="C178" t="s">
         <v>8</v>
@@ -11510,10 +11507,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B179" t="s">
         <v>1312</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1313</v>
       </c>
       <c r="C179" t="s">
         <v>66</v>
@@ -11527,10 +11524,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B180" t="s">
         <v>1314</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1315</v>
       </c>
       <c r="C180" t="s">
         <v>66</v>
@@ -11544,10 +11541,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B181" t="s">
         <v>1316</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1317</v>
       </c>
       <c r="C181" t="s">
         <v>129</v>
@@ -11561,10 +11558,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B182" t="s">
         <v>1318</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1319</v>
       </c>
       <c r="C182" t="s">
         <v>129</v>
@@ -11578,10 +11575,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B183" t="s">
         <v>1320</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1321</v>
       </c>
       <c r="C183" t="s">
         <v>8</v>
@@ -11595,10 +11592,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B184" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C184" t="s">
         <v>66</v>
@@ -11612,10 +11609,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B185" t="s">
         <v>1323</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1324</v>
       </c>
       <c r="C185" t="s">
         <v>66</v>
@@ -11697,7 +11694,7 @@
         <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -11734,10 +11731,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B4" t="s">
         <v>1326</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1327</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -11754,10 +11751,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B5" t="s">
         <v>1328</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1329</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -11774,10 +11771,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B6" t="s">
         <v>1330</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1331</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -11794,10 +11791,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B7" t="s">
         <v>1332</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1333</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -11814,10 +11811,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B8" t="s">
         <v>1334</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1335</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -11865,10 +11862,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B11" t="s">
         <v>1336</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1337</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -11882,10 +11879,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B12" t="s">
         <v>1338</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1339</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -11899,10 +11896,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B13" t="s">
         <v>1340</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1341</v>
       </c>
       <c r="C13" t="s">
         <v>129</v>
@@ -11916,10 +11913,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B14" t="s">
         <v>1342</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1343</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -11933,10 +11930,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B15" t="s">
         <v>1344</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1345</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -11950,10 +11947,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B16" t="s">
         <v>1346</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1347</v>
       </c>
       <c r="C16" t="s">
         <v>132</v>
@@ -11967,10 +11964,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B17" t="s">
         <v>1348</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1349</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -16597,8 +16594,8 @@
   <sheetPr/>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -16660,7 +16657,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -16685,10 +16682,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" t="s">
         <v>575</v>
-      </c>
-      <c r="B5" t="s">
-        <v>576</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -16702,10 +16699,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" t="s">
         <v>577</v>
-      </c>
-      <c r="B6" t="s">
-        <v>578</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -16719,7 +16716,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B7" t="s">
         <v>266</v>
@@ -16736,10 +16733,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B8" t="s">
         <v>580</v>
-      </c>
-      <c r="B8" t="s">
-        <v>581</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -16753,10 +16750,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B9" t="s">
         <v>582</v>
-      </c>
-      <c r="B9" t="s">
-        <v>583</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -16770,10 +16767,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" t="s">
         <v>584</v>
-      </c>
-      <c r="B10" t="s">
-        <v>585</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -16787,10 +16784,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B11" t="s">
         <v>586</v>
-      </c>
-      <c r="B11" t="s">
-        <v>587</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -16804,10 +16801,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" t="s">
         <v>588</v>
-      </c>
-      <c r="B12" t="s">
-        <v>589</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -16821,10 +16818,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" t="s">
         <v>590</v>
-      </c>
-      <c r="B13" t="s">
-        <v>591</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -16838,10 +16835,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B14" t="s">
         <v>592</v>
-      </c>
-      <c r="B14" t="s">
-        <v>593</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -16855,10 +16852,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B15" t="s">
         <v>594</v>
-      </c>
-      <c r="B15" t="s">
-        <v>595</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -16872,10 +16869,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B16" t="s">
         <v>596</v>
-      </c>
-      <c r="B16" t="s">
-        <v>597</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -16889,10 +16886,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>597</v>
+      </c>
+      <c r="B17" t="s">
         <v>598</v>
-      </c>
-      <c r="B17" t="s">
-        <v>599</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -16906,7 +16903,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B18" t="s">
         <v>306</v>
@@ -16923,10 +16920,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>600</v>
+      </c>
+      <c r="B19" t="s">
         <v>601</v>
-      </c>
-      <c r="B19" t="s">
-        <v>602</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -16940,10 +16937,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20" t="s">
         <v>603</v>
-      </c>
-      <c r="B20" t="s">
-        <v>604</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -16957,10 +16954,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>604</v>
+      </c>
+      <c r="B21" t="s">
         <v>605</v>
-      </c>
-      <c r="B21" t="s">
-        <v>606</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -16974,10 +16971,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>606</v>
+      </c>
+      <c r="B22" t="s">
         <v>607</v>
-      </c>
-      <c r="B22" t="s">
-        <v>608</v>
       </c>
       <c r="C22" t="s">
         <v>201</v>
@@ -16994,7 +16991,7 @@
         <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -17008,10 +17005,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>609</v>
+      </c>
+      <c r="B24" t="s">
         <v>610</v>
-      </c>
-      <c r="B24" t="s">
-        <v>611</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -17025,10 +17022,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>611</v>
+      </c>
+      <c r="B25" t="s">
         <v>612</v>
-      </c>
-      <c r="B25" t="s">
-        <v>613</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -17042,10 +17039,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>613</v>
+      </c>
+      <c r="B26" t="s">
         <v>614</v>
-      </c>
-      <c r="B26" t="s">
-        <v>615</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -17073,10 +17070,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>615</v>
+      </c>
+      <c r="B28" t="s">
         <v>616</v>
-      </c>
-      <c r="B28" t="s">
-        <v>617</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -17090,10 +17087,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>617</v>
+      </c>
+      <c r="B29" t="s">
         <v>618</v>
-      </c>
-      <c r="B29" t="s">
-        <v>619</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -17107,10 +17104,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>619</v>
+      </c>
+      <c r="B30" t="s">
         <v>620</v>
-      </c>
-      <c r="B30" t="s">
-        <v>621</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -17124,7 +17121,7 @@
         <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -17138,7 +17135,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B32" t="s">
         <v>293</v>
@@ -17155,7 +17152,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B33" t="s">
         <v>263</v>
@@ -17172,10 +17169,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>624</v>
+      </c>
+      <c r="B34" t="s">
         <v>625</v>
-      </c>
-      <c r="B34" t="s">
-        <v>626</v>
       </c>
       <c r="C34" t="s">
         <v>201</v>
@@ -17189,10 +17186,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>626</v>
+      </c>
+      <c r="B35" t="s">
         <v>627</v>
-      </c>
-      <c r="B35" t="s">
-        <v>628</v>
       </c>
       <c r="C35" t="s">
         <v>201</v>
@@ -17206,10 +17203,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>628</v>
+      </c>
+      <c r="B36" t="s">
         <v>629</v>
-      </c>
-      <c r="B36" t="s">
-        <v>630</v>
       </c>
       <c r="C36" t="s">
         <v>201</v>
@@ -17223,10 +17220,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>630</v>
+      </c>
+      <c r="B37" t="s">
         <v>631</v>
-      </c>
-      <c r="B37" t="s">
-        <v>632</v>
       </c>
       <c r="C37" t="s">
         <v>201</v>
@@ -17240,10 +17237,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>632</v>
+      </c>
+      <c r="B38" t="s">
         <v>633</v>
-      </c>
-      <c r="B38" t="s">
-        <v>634</v>
       </c>
       <c r="C38" t="s">
         <v>201</v>
@@ -17257,10 +17254,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>634</v>
+      </c>
+      <c r="B39" t="s">
         <v>635</v>
-      </c>
-      <c r="B39" t="s">
-        <v>636</v>
       </c>
       <c r="C39" t="s">
         <v>201</v>
@@ -17274,10 +17271,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>636</v>
+      </c>
+      <c r="B40" t="s">
         <v>637</v>
-      </c>
-      <c r="B40" t="s">
-        <v>638</v>
       </c>
       <c r="C40" t="s">
         <v>201</v>
@@ -17291,10 +17288,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>638</v>
+      </c>
+      <c r="B41" t="s">
         <v>639</v>
-      </c>
-      <c r="B41" t="s">
-        <v>640</v>
       </c>
       <c r="C41" t="s">
         <v>201</v>
@@ -17308,10 +17305,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>640</v>
+      </c>
+      <c r="B42" t="s">
         <v>641</v>
-      </c>
-      <c r="B42" t="s">
-        <v>642</v>
       </c>
       <c r="C42" t="s">
         <v>201</v>
@@ -17325,10 +17322,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>642</v>
+      </c>
+      <c r="B43" t="s">
         <v>643</v>
-      </c>
-      <c r="B43" t="s">
-        <v>644</v>
       </c>
       <c r="C43" t="s">
         <v>201</v>
@@ -17342,10 +17339,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>644</v>
+      </c>
+      <c r="B44" t="s">
         <v>645</v>
-      </c>
-      <c r="B44" t="s">
-        <v>646</v>
       </c>
       <c r="C44" t="s">
         <v>201</v>
@@ -17359,10 +17356,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>646</v>
+      </c>
+      <c r="B45" t="s">
         <v>647</v>
-      </c>
-      <c r="B45" t="s">
-        <v>648</v>
       </c>
       <c r="C45" t="s">
         <v>201</v>
@@ -17376,10 +17373,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>648</v>
+      </c>
+      <c r="B46" t="s">
         <v>649</v>
-      </c>
-      <c r="B46" t="s">
-        <v>650</v>
       </c>
       <c r="C46" t="s">
         <v>201</v>
@@ -17393,10 +17390,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>650</v>
+      </c>
+      <c r="B47" t="s">
         <v>651</v>
-      </c>
-      <c r="B47" t="s">
-        <v>652</v>
       </c>
       <c r="C47" t="s">
         <v>201</v>
@@ -17410,10 +17407,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>652</v>
+      </c>
+      <c r="B48" t="s">
         <v>653</v>
-      </c>
-      <c r="B48" t="s">
-        <v>654</v>
       </c>
       <c r="C48" t="s">
         <v>201</v>
@@ -17427,10 +17424,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>654</v>
+      </c>
+      <c r="B49" t="s">
         <v>655</v>
-      </c>
-      <c r="B49" t="s">
-        <v>656</v>
       </c>
       <c r="C49" t="s">
         <v>201</v>
@@ -17444,10 +17441,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
+        <v>656</v>
+      </c>
+      <c r="B50" t="s">
         <v>657</v>
-      </c>
-      <c r="B50" t="s">
-        <v>658</v>
       </c>
       <c r="C50" t="s">
         <v>201</v>
@@ -17461,10 +17458,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>658</v>
+      </c>
+      <c r="B51" t="s">
         <v>659</v>
-      </c>
-      <c r="B51" t="s">
-        <v>660</v>
       </c>
       <c r="C51" t="s">
         <v>201</v>
@@ -17478,10 +17475,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>660</v>
+      </c>
+      <c r="B52" t="s">
         <v>661</v>
-      </c>
-      <c r="B52" t="s">
-        <v>662</v>
       </c>
       <c r="C52" t="s">
         <v>201</v>
@@ -17495,10 +17492,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>662</v>
+      </c>
+      <c r="B53" t="s">
         <v>663</v>
-      </c>
-      <c r="B53" t="s">
-        <v>664</v>
       </c>
       <c r="C53" t="s">
         <v>201</v>
@@ -17512,10 +17509,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>664</v>
+      </c>
+      <c r="B54" t="s">
         <v>665</v>
-      </c>
-      <c r="B54" t="s">
-        <v>666</v>
       </c>
       <c r="C54" t="s">
         <v>201</v>
@@ -17529,10 +17526,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>666</v>
+      </c>
+      <c r="B55" t="s">
         <v>667</v>
-      </c>
-      <c r="B55" t="s">
-        <v>668</v>
       </c>
       <c r="C55" t="s">
         <v>201</v>
@@ -17546,10 +17543,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>668</v>
+      </c>
+      <c r="B56" t="s">
         <v>669</v>
-      </c>
-      <c r="B56" t="s">
-        <v>670</v>
       </c>
       <c r="C56" t="s">
         <v>201</v>
@@ -17563,10 +17560,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
+        <v>670</v>
+      </c>
+      <c r="B57" t="s">
         <v>671</v>
-      </c>
-      <c r="B57" t="s">
-        <v>672</v>
       </c>
       <c r="C57" t="s">
         <v>201</v>
@@ -17580,10 +17577,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
+        <v>672</v>
+      </c>
+      <c r="B58" t="s">
         <v>673</v>
-      </c>
-      <c r="B58" t="s">
-        <v>674</v>
       </c>
       <c r="C58" t="s">
         <v>201</v>
@@ -17597,10 +17594,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>674</v>
+      </c>
+      <c r="B59" t="s">
         <v>675</v>
-      </c>
-      <c r="B59" t="s">
-        <v>676</v>
       </c>
       <c r="C59" t="s">
         <v>201</v>
@@ -17614,10 +17611,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>676</v>
+      </c>
+      <c r="B60" t="s">
         <v>677</v>
-      </c>
-      <c r="B60" t="s">
-        <v>678</v>
       </c>
       <c r="C60" t="s">
         <v>201</v>
@@ -17631,10 +17628,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B61" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C61" t="s">
         <v>201</v>
@@ -17648,10 +17645,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>679</v>
+      </c>
+      <c r="B62" t="s">
         <v>680</v>
-      </c>
-      <c r="B62" t="s">
-        <v>681</v>
       </c>
       <c r="C62" t="s">
         <v>201</v>
@@ -17665,10 +17662,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>681</v>
+      </c>
+      <c r="B63" t="s">
         <v>682</v>
-      </c>
-      <c r="B63" t="s">
-        <v>683</v>
       </c>
       <c r="C63" t="s">
         <v>201</v>
@@ -17682,10 +17679,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>683</v>
+      </c>
+      <c r="B64" t="s">
         <v>684</v>
-      </c>
-      <c r="B64" t="s">
-        <v>685</v>
       </c>
       <c r="C64" t="s">
         <v>201</v>
@@ -17699,10 +17696,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>685</v>
+      </c>
+      <c r="B65" t="s">
         <v>686</v>
-      </c>
-      <c r="B65" t="s">
-        <v>687</v>
       </c>
       <c r="C65" t="s">
         <v>201</v>
@@ -17716,10 +17713,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>687</v>
+      </c>
+      <c r="B66" t="s">
         <v>688</v>
-      </c>
-      <c r="B66" t="s">
-        <v>689</v>
       </c>
       <c r="C66" t="s">
         <v>201</v>
@@ -17733,10 +17730,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>689</v>
+      </c>
+      <c r="B67" t="s">
         <v>690</v>
-      </c>
-      <c r="B67" t="s">
-        <v>691</v>
       </c>
       <c r="C67" t="s">
         <v>201</v>
@@ -17750,10 +17747,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>691</v>
+      </c>
+      <c r="B68" t="s">
         <v>692</v>
-      </c>
-      <c r="B68" t="s">
-        <v>693</v>
       </c>
       <c r="C68" t="s">
         <v>201</v>
@@ -17767,10 +17764,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>693</v>
+      </c>
+      <c r="B69" t="s">
         <v>694</v>
-      </c>
-      <c r="B69" t="s">
-        <v>695</v>
       </c>
       <c r="C69" t="s">
         <v>201</v>
@@ -17784,10 +17781,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>695</v>
+      </c>
+      <c r="B70" t="s">
         <v>696</v>
-      </c>
-      <c r="B70" t="s">
-        <v>697</v>
       </c>
       <c r="C70" t="s">
         <v>201</v>
@@ -17801,10 +17798,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>697</v>
+      </c>
+      <c r="B71" t="s">
         <v>698</v>
-      </c>
-      <c r="B71" t="s">
-        <v>699</v>
       </c>
       <c r="C71" t="s">
         <v>201</v>
@@ -17818,10 +17815,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>699</v>
+      </c>
+      <c r="B72" t="s">
         <v>700</v>
-      </c>
-      <c r="B72" t="s">
-        <v>701</v>
       </c>
       <c r="C72" t="s">
         <v>201</v>
@@ -17835,10 +17832,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>701</v>
+      </c>
+      <c r="B73" t="s">
         <v>702</v>
-      </c>
-      <c r="B73" t="s">
-        <v>703</v>
       </c>
       <c r="C73" t="s">
         <v>201</v>
@@ -17852,10 +17849,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>703</v>
+      </c>
+      <c r="B74" t="s">
         <v>704</v>
-      </c>
-      <c r="B74" t="s">
-        <v>705</v>
       </c>
       <c r="C74" t="s">
         <v>201</v>
@@ -17869,10 +17866,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
+        <v>705</v>
+      </c>
+      <c r="B75" t="s">
         <v>706</v>
-      </c>
-      <c r="B75" t="s">
-        <v>707</v>
       </c>
       <c r="C75" t="s">
         <v>201</v>
@@ -17886,10 +17883,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>707</v>
+      </c>
+      <c r="B76" t="s">
         <v>708</v>
-      </c>
-      <c r="B76" t="s">
-        <v>709</v>
       </c>
       <c r="C76" t="s">
         <v>201</v>
@@ -17903,10 +17900,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>709</v>
+      </c>
+      <c r="B77" t="s">
         <v>710</v>
-      </c>
-      <c r="B77" t="s">
-        <v>711</v>
       </c>
       <c r="C77" t="s">
         <v>201</v>
@@ -17920,10 +17917,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
+        <v>711</v>
+      </c>
+      <c r="B78" t="s">
         <v>712</v>
-      </c>
-      <c r="B78" t="s">
-        <v>713</v>
       </c>
       <c r="C78" t="s">
         <v>201</v>
@@ -17937,10 +17934,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
+        <v>713</v>
+      </c>
+      <c r="B79" t="s">
         <v>714</v>
-      </c>
-      <c r="B79" t="s">
-        <v>715</v>
       </c>
       <c r="C79" t="s">
         <v>201</v>
@@ -17954,10 +17951,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
+        <v>715</v>
+      </c>
+      <c r="B80" t="s">
         <v>716</v>
-      </c>
-      <c r="B80" t="s">
-        <v>717</v>
       </c>
       <c r="C80" t="s">
         <v>201</v>
@@ -17971,10 +17968,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
+        <v>717</v>
+      </c>
+      <c r="B81" t="s">
         <v>718</v>
-      </c>
-      <c r="B81" t="s">
-        <v>719</v>
       </c>
       <c r="C81" t="s">
         <v>201</v>
@@ -17988,10 +17985,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
+        <v>719</v>
+      </c>
+      <c r="B82" t="s">
         <v>720</v>
-      </c>
-      <c r="B82" t="s">
-        <v>721</v>
       </c>
       <c r="C82" t="s">
         <v>201</v>
@@ -18005,10 +18002,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
+        <v>721</v>
+      </c>
+      <c r="B83" t="s">
         <v>722</v>
-      </c>
-      <c r="B83" t="s">
-        <v>723</v>
       </c>
       <c r="C83" t="s">
         <v>201</v>
@@ -18022,10 +18019,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
+        <v>723</v>
+      </c>
+      <c r="B84" t="s">
         <v>724</v>
-      </c>
-      <c r="B84" t="s">
-        <v>725</v>
       </c>
       <c r="C84" t="s">
         <v>201</v>
@@ -18039,10 +18036,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
+        <v>725</v>
+      </c>
+      <c r="B85" t="s">
         <v>726</v>
-      </c>
-      <c r="B85" t="s">
-        <v>727</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -18056,10 +18053,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B86" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -18073,10 +18070,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
+        <v>728</v>
+      </c>
+      <c r="B87" t="s">
         <v>729</v>
-      </c>
-      <c r="B87" t="s">
-        <v>730</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -18090,10 +18087,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
+        <v>730</v>
+      </c>
+      <c r="B88" t="s">
         <v>731</v>
-      </c>
-      <c r="B88" t="s">
-        <v>732</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -18107,10 +18104,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
+        <v>732</v>
+      </c>
+      <c r="B89" t="s">
         <v>733</v>
-      </c>
-      <c r="B89" t="s">
-        <v>734</v>
       </c>
       <c r="C89" t="s">
         <v>201</v>
@@ -18124,7 +18121,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
